--- a/08.07-14.07/Time Sheet.xlsx
+++ b/08.07-14.07/Time Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasl/Documents/Caplin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasl/Documents/Caplin/FileStore-Diploma/08.07-14.07/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -680,8 +680,8 @@
   </sheetPr>
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
